--- a/Data/female_AngII_data.xlsx
+++ b/Data/female_AngII_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s347ahme/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s347ahme/Documents/GitHub/BP-Regulation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D7F639CB-E1B3-5A4B-AA1E-EE50C524E42C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7E3C8-57CE-F149-8E4E-F58B86D494F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19220" yWindow="10540" windowWidth="19360" windowHeight="9460" xr2:uid="{5C9ECC3B-B5A7-464D-A5A6-2FFC7605FB37}"/>
+    <workbookView xWindow="0" yWindow="10540" windowWidth="19360" windowHeight="9460" xr2:uid="{5C9ECC3B-B5A7-464D-A5A6-2FFC7605FB37}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,17 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Rat/Day</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -44,6 +52,14 @@
       <sz val="12"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,11 +82,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -385,340 +402,343 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3058C4B3-7962-144D-A61A-6CEDD891346A}">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B2" s="1">
         <v>140.43854166666668</v>
       </c>
-      <c r="B1" s="1">
+      <c r="C2" s="1">
         <v>143.67202857142854</v>
       </c>
-      <c r="C1" s="1">
+      <c r="D2" s="1">
         <v>142.80271094750321</v>
       </c>
-      <c r="D1" s="1">
+      <c r="E2" s="1">
         <v>141.33366197183099</v>
       </c>
-      <c r="E1" s="1">
+      <c r="F2" s="1">
         <v>140.70697588146226</v>
       </c>
-      <c r="F1" s="1">
+      <c r="G2" s="1">
         <v>149.04594923708919</v>
       </c>
-      <c r="G1" s="1">
+      <c r="H2" s="1">
         <v>154.21157608695654</v>
       </c>
-      <c r="H1" s="1">
+      <c r="I2" s="1">
         <v>149.13280564568464</v>
       </c>
-      <c r="I1" s="1">
+      <c r="J2" s="1">
         <v>155.6721630517024</v>
       </c>
-      <c r="J1" s="1">
+      <c r="K2" s="1">
         <v>154.19735256410257</v>
       </c>
-      <c r="K1" s="1">
+      <c r="L2" s="1">
         <v>153.2928679529283</v>
       </c>
-      <c r="L1" s="1">
+      <c r="M2" s="1">
         <v>160.65246638156333</v>
       </c>
-      <c r="M1" s="1">
+      <c r="N2" s="1">
         <v>163.80838722897937</v>
       </c>
-      <c r="N1" s="1">
+      <c r="O2" s="1">
         <v>165.46526341391507</v>
       </c>
-      <c r="O1" s="1">
+      <c r="P2" s="1">
         <v>171.46689156626505</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B3" s="1">
         <v>141.11466488933598</v>
       </c>
-      <c r="B2" s="1">
+      <c r="C3" s="1">
         <v>144.96974587525153</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>144.04369245472839</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>140.24872897994027</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F3" s="1">
         <v>146.12999780219781</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G3" s="1">
         <v>138.75745559467919</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H3" s="1">
         <v>137.31822222222223</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I3" s="1">
         <v>143.65447222222221</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J3" s="1">
         <v>153.43577633889376</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K3" s="1">
         <v>153.52351343283578</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L3" s="1">
         <v>163.55378968253967</v>
       </c>
-      <c r="L2" s="1">
+      <c r="M3" s="1">
         <v>171.72451649646507</v>
       </c>
-      <c r="M2" s="1">
+      <c r="N3" s="1">
         <v>167.34621470588235</v>
       </c>
-      <c r="N2" s="1">
+      <c r="O3" s="1">
         <v>159.67139062499996</v>
       </c>
-      <c r="O2" s="1">
+      <c r="P3" s="1">
         <v>158.97775308641985</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B4" s="1">
         <v>131.32979332942097</v>
       </c>
-      <c r="B3" s="1">
+      <c r="C4" s="1">
         <v>139.08643541247488</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D4" s="1">
         <v>136.33625000000001</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E4" s="1">
         <v>135.02187046521601</v>
       </c>
-      <c r="E3" s="1">
+      <c r="F4" s="1">
         <v>140.45973943661971</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G4" s="1">
         <v>137.75979166666664</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H4" s="1">
         <v>141.755875</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I4" s="1">
         <v>152.66280985915495</v>
       </c>
-      <c r="I3" s="1">
+      <c r="J4" s="1">
         <v>140.29693750000001</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K4" s="1">
         <v>148.28878592750533</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L4" s="1">
         <v>137.4259993961353</v>
       </c>
-      <c r="L3" s="1">
+      <c r="M4" s="1">
         <v>132.50280555555554</v>
       </c>
-      <c r="M3" s="1">
+      <c r="N4" s="1">
         <v>140.72901388888894</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O4" s="1">
         <v>148.69944444444445</v>
       </c>
-      <c r="O3" s="1">
+      <c r="P4" s="1">
         <v>149.94635227272721</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B5" s="1">
         <v>139.93580007824721</v>
       </c>
-      <c r="B4" s="1">
+      <c r="C5" s="1">
         <v>145.43227857142855</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>140.21257043650792</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
         <v>143.83994340659342</v>
       </c>
-      <c r="E4" s="1">
+      <c r="F5" s="1">
         <v>145.76191711809312</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G5" s="1">
         <v>154.20529044289049</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H5" s="1">
         <v>154.3968612531969</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I5" s="1">
         <v>165.43259799861974</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J5" s="1">
         <v>151.3793438740079</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K5" s="1">
         <v>155.93958560606063</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L5" s="1">
         <v>154.64838361344545</v>
       </c>
-      <c r="L4" s="1">
+      <c r="M5" s="1">
         <v>161.24405714285726</v>
       </c>
-      <c r="M4" s="1">
+      <c r="N5" s="1">
         <v>157.04512142857143</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O5" s="1">
         <v>165.1376181795938</v>
       </c>
-      <c r="O4" s="1">
+      <c r="P5" s="1">
         <v>164.62227380952382</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B6" s="1">
         <v>142.5284017018779</v>
       </c>
-      <c r="B5" s="1">
+      <c r="C6" s="1">
         <v>148.51343777436347</v>
       </c>
-      <c r="C5" s="1">
+      <c r="D6" s="1">
         <v>150.36642633262258</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E6" s="1">
         <v>147.76233945409425</v>
       </c>
-      <c r="E5" s="1">
+      <c r="F6" s="1">
         <v>149.9569215795328</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G6" s="1">
         <v>150.68809426229512</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H6" s="1">
         <v>145.75200000000001</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I6" s="1">
         <v>147.38418611111109</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J6" s="1">
         <v>155.7306415778252</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K6" s="1">
         <v>153.02267141756548</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L6" s="1">
         <v>166.36148634453781</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M6" s="1">
         <v>171.8149454225352</v>
       </c>
-      <c r="M5" s="1">
+      <c r="N6" s="1">
         <v>173.59748058045238</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O6" s="1">
         <v>169.05557773109246</v>
       </c>
-      <c r="O5" s="1">
+      <c r="P6" s="1">
         <v>169.6514352941177</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B7" s="1">
         <v>126.48092048122065</v>
       </c>
-      <c r="B6" s="1">
+      <c r="C7" s="1">
         <v>134.20450980392158</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D7" s="1">
         <v>130.99108959311422</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E7" s="1">
         <v>128.46616138059704</v>
       </c>
-      <c r="E6" s="1">
+      <c r="F7" s="1">
         <v>122.34438194444444</v>
       </c>
-      <c r="F6" s="1">
+      <c r="G7" s="1">
         <v>128.70618055555559</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H7" s="1">
         <v>135.60213888888893</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I7" s="1">
         <v>145.15561189358374</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J7" s="1">
         <v>154.32239485524258</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K7" s="1">
         <v>154.49533387096773</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L7" s="1">
         <v>156.43474774405252</v>
       </c>
-      <c r="L6" s="1">
+      <c r="M7" s="1">
         <v>147.92943750000003</v>
       </c>
-      <c r="M6" s="1">
+      <c r="N7" s="1">
         <v>160.80245833333333</v>
       </c>
-      <c r="N6" s="1">
+      <c r="O7" s="1">
         <v>145.70256702898556</v>
       </c>
-      <c r="O6" s="1">
+      <c r="P7" s="1">
         <v>146.73563636363636</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A7" s="1">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="B8" s="1">
         <v>142.84576073232324</v>
       </c>
-      <c r="B7" s="1">
+      <c r="C8" s="1">
         <v>148.90008615013167</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D8" s="1">
         <v>142.89720305164317</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E8" s="1">
         <v>141.23869913326115</v>
       </c>
-      <c r="E7" s="1">
+      <c r="F8" s="1">
         <v>130.65445324726133</v>
       </c>
-      <c r="F7" s="1">
+      <c r="G8" s="1">
         <v>133.5256805555556</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H8" s="1">
         <v>138.1120416666667</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I8" s="1">
         <v>138.86002777777776</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J8" s="1">
         <v>148.36981161971829</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K8" s="1">
         <v>153.64535238095237</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L8" s="1">
         <v>157.87201153846152</v>
       </c>
-      <c r="L7" s="1">
+      <c r="M8" s="1">
         <v>170.86649123945492</v>
       </c>
-      <c r="M7" s="1">
+      <c r="N8" s="1">
         <v>167.12893840579716</v>
       </c>
-      <c r="N7" s="1">
+      <c r="O8" s="1">
         <v>161.83139587525153</v>
       </c>
-      <c r="O7" s="1">
+      <c r="P8" s="1">
         <v>158.40059770114942</v>
       </c>
     </row>

--- a/Data/female_AngII_data.xlsx
+++ b/Data/female_AngII_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/s347ahme/Documents/GitHub/BP-Regulation/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D7E3C8-57CE-F149-8E4E-F58B86D494F8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99E47EDF-E547-5745-A6A1-74D24DB26DDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="10540" windowWidth="19360" windowHeight="9460" xr2:uid="{5C9ECC3B-B5A7-464D-A5A6-2FFC7605FB37}"/>
   </bookViews>
@@ -404,7 +404,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3058C4B3-7962-144D-A61A-6CEDD891346A}">
   <dimension ref="A1:P8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
